--- a/Al_Doilea_Test/Note_Test.xlsx
+++ b/Al_Doilea_Test/Note_Test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>Ari Zeynep Melisa</t>
   </si>
@@ -70,13 +70,34 @@
   </si>
   <si>
     <t>Burciu Adelin</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Nume</t>
+  </si>
+  <si>
+    <t>Nota test 1</t>
+  </si>
+  <si>
+    <t>Nota test 2</t>
+  </si>
+  <si>
+    <t>Nota final</t>
+  </si>
+  <si>
+    <t>Nota laborator (cu 0.5)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +105,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -105,8 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,167 +441,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7" ht="30">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <f>(B2+C2)/2 + 0.5</f>
+        <v>9.25</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E18" si="0" xml:space="preserve"> ROUNDUP(D3,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4.5</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D3:D18" si="1">(B4+C4)/2 + 0.5</f>
+        <v>5.25</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6">
+        <v>5.5</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>7.25</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>9.5</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>8.5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14">
+        <v>9.5</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>14</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>15</v>
       </c>
       <c r="B16">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>7.5</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>7.25</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>7.5</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>7.25</v>
+      </c>
+      <c r="E17">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>9</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
